--- a/biology/Zoologie/Apomys_brownorum/Apomys_brownorum.xlsx
+++ b/biology/Zoologie/Apomys_brownorum/Apomys_brownorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apomys brownorum est une espèce de rongeurs endémique du mont Tapulao (en), sur l'île de Luçon, aux Philippines.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Lawrence Heaney, Danilo S. Balete, Eric A. Rickart, Phillip A. Alviola, Mariano Roy M. Duya, Melizar V. Duya, M. Josefa Veluz, Lawren VandeVrede et Scott J. Steppan, « Chapter 1: Seven New Species and a New Subgenus of Forest Mice (Rodentia: Muridae: Apomys) from Luzon Island », Fieldiana: Life and Earth Sciences, vol. 2,‎ mai 2011, p. 1-60 (ISSN 2158-5520 et 2163-7105, OCLC 682126503, DOI 10.3158/2158-5520-2.1.1)</t>
         </is>
